--- a/data/trans_camb/MCS12_SP_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.80894150330397</v>
+        <v>-11.15377249674675</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2892709246993841</v>
+        <v>0.3773883468212269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.97554584945611</v>
+        <v>-12.05878139254676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.99315468033677</v>
+        <v>-3.957021181118364</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.556504953667362</v>
+        <v>-3.478495924746146</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.834859530002559</v>
+        <v>-5.455314361182415</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.655930945586275</v>
+        <v>-6.398576287932253</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.060338782085197</v>
+        <v>-1.290757716235776</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.333068178169119</v>
+        <v>-7.357048954349726</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.5228831061850802</v>
+        <v>-0.7155226888903035</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.4267649877062</v>
+        <v>10.39252047679662</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7487514705310195</v>
+        <v>1.744486666990159</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.802233961734708</v>
+        <v>5.134957488861999</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.965422284512119</v>
+        <v>5.13915795878935</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.632459396891542</v>
+        <v>4.513508204900096</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.28041833838146</v>
+        <v>0.2546107616968608</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.358234301296946</v>
+        <v>5.182362830124228</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7796172455370406</v>
+        <v>0.5112320892530008</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1813832234993413</v>
+        <v>-0.1902917502671088</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.004360097781198999</v>
+        <v>0.006401709832018407</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2046310573419298</v>
+        <v>-0.2044592764769198</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05954567517885624</v>
+        <v>-0.05906837191377758</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05305214446115926</v>
+        <v>-0.05237891574562532</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08649006035541672</v>
+        <v>-0.08296895523056196</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1044065100788074</v>
+        <v>-0.1013729432218556</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.016769349351785</v>
+        <v>-0.02020336110559653</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1165301428476988</v>
+        <v>-0.1173106176895249</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.01003828383310093</v>
+        <v>-0.01440415532952205</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1988076889283563</v>
+        <v>0.1963319070605231</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.01288800850144834</v>
+        <v>0.03296516689274281</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.07631838882008346</v>
+        <v>0.08268470382601253</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08064853146246072</v>
+        <v>0.08406391660731631</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05822697060383969</v>
+        <v>0.07267119394203173</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.00454578848334061</v>
+        <v>0.004072612455593993</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0909258848450949</v>
+        <v>0.08652685776192615</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.01287919690235674</v>
+        <v>0.008395735257826319</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>5.259543885039585</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.138890577095499</v>
+        <v>-3.138890577095493</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>11.1709010997377</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.509833076089985</v>
+        <v>2.698988155195555</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8333723245704641</v>
+        <v>0.6503360170954824</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.702534575707555</v>
+        <v>-7.533008307775242</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.074352824562754</v>
+        <v>7.082619571314101</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.652193953109421</v>
+        <v>-4.799091747303801</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.615982937155704</v>
+        <v>-6.70580648811548</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.419189239643118</v>
+        <v>6.377486413011975</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.47017379232131</v>
+        <v>-0.1936719233167024</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.443400062650895</v>
+        <v>-5.791731484442431</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.57461938560684</v>
+        <v>11.65251133788299</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.724837983044948</v>
+        <v>9.469992227744173</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.458840651106609</v>
+        <v>1.614169915104676</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.54406813617626</v>
+        <v>15.64529022071187</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.103245514224066</v>
+        <v>4.355776177578925</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.531565356710968</v>
+        <v>1.610258872733325</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.60969251972646</v>
+        <v>12.83801766387884</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.929260350056756</v>
+        <v>6.183559906446336</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5813982115178579</v>
+        <v>0.4996677716119532</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1220760041947462</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.07285483829620623</v>
+        <v>-0.07285483829620611</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2164382064266889</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05614618986672045</v>
+        <v>0.06050252431177944</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01842490704312343</v>
+        <v>0.01414622318939254</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1708145107529494</v>
+        <v>-0.1646363070150857</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1300237902922909</v>
+        <v>0.131734840206865</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08721728996493761</v>
+        <v>-0.08890367433464735</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1243342669169926</v>
+        <v>-0.1249150726780335</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1330861758676717</v>
+        <v>0.13037412024314</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.009370082966942365</v>
+        <v>-0.004022976543626684</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1110576605276622</v>
+        <v>-0.1181346840535613</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2881796032453229</v>
+        <v>0.2887279783016738</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.238441177039805</v>
+        <v>0.231908891666483</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03516561059482171</v>
+        <v>0.04077403661679502</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3111103783966735</v>
+        <v>0.3161235684685911</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08321423474238072</v>
+        <v>0.08758999908517685</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03042752603058449</v>
+        <v>0.03323260223532</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2764265723919898</v>
+        <v>0.2788636636787076</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1300885462534588</v>
+        <v>0.1376780299607235</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.01287542396179012</v>
+        <v>0.01158080730042859</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.282369376367739</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.986310347402114</v>
+        <v>0.9863103474021084</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>11.88372512919691</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.358643918950385</v>
+        <v>8.042477954265301</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9306330512420496</v>
+        <v>-1.15858188657813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.035136962793021</v>
+        <v>-3.052589166367662</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.228470808393834</v>
+        <v>7.001007165126179</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.585793809727626</v>
+        <v>-2.337936338930866</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.872279264774643</v>
+        <v>-8.183202694637989</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>9.240694864878632</v>
+        <v>9.405520744921356</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7615146389070232</v>
+        <v>-0.4642375727704192</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.439204006312496</v>
+        <v>-3.983481663702879</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.18640660054761</v>
+        <v>17.35649907635554</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.8761063888501</v>
+        <v>7.921446501583183</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.546630002722906</v>
+        <v>5.572123003310367</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.67644314703099</v>
+        <v>16.38690332654429</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.149207676187314</v>
+        <v>7.025663418844548</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3190587258162293</v>
+        <v>-0.0002627096409475591</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.82149270974221</v>
+        <v>16.08455019302195</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.614609487232044</v>
+        <v>6.326005314544076</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.777238132120828</v>
+        <v>1.742569475639222</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.09330342040608591</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.02803649389891882</v>
+        <v>0.02803649389891866</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2541933152675959</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.227969108525635</v>
+        <v>0.2177907399298386</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.02580553811500072</v>
+        <v>-0.03172728469393311</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08282796689663798</v>
+        <v>-0.08289146473391597</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1473749367326684</v>
+        <v>0.1424787918312137</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.05474411440111944</v>
+        <v>-0.04783089168197581</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1598851639543292</v>
+        <v>-0.1660128674127025</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.216929078304626</v>
+        <v>0.2256234446706269</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01706839992844331</v>
+        <v>-0.01229653315802203</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1033125604442416</v>
+        <v>-0.09420885804928399</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5175767833430277</v>
+        <v>0.5258816343535214</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2354823580390823</v>
+        <v>0.2423983747274346</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1697661512937133</v>
+        <v>0.1689777740744945</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3744033334361227</v>
+        <v>0.3653334826374711</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.159576654497124</v>
+        <v>0.1568622723996517</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.008920716121600687</v>
+        <v>0.0007760994728957842</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4049930096586238</v>
+        <v>0.4151611356739995</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1713420096895948</v>
+        <v>0.159382861875065</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.04632096285223419</v>
+        <v>0.04446053684185904</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-11.10333563531789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2811332317186721</v>
+        <v>0.2811332317186666</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.304735921430026</v>
@@ -1297,7 +1297,7 @@
         <v>-8.602788033275255</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.063691618215223</v>
+        <v>1.063691618215235</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.253729289965257</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.84264644715714</v>
+        <v>-5.658655017254929</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-18.83706966952748</v>
+        <v>-17.35077358159359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.81657696092941</v>
+        <v>-5.71006232939324</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.315792633829268</v>
+        <v>-1.920446107542781</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-15.58866608754082</v>
+        <v>-16.11207381418766</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.37808211528371</v>
+        <v>-4.376731385885544</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.930985083489912</v>
+        <v>-1.991204594599283</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-14.81545173148392</v>
+        <v>-14.244028931874</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.035980227361613</v>
+        <v>-3.295111963770286</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.27041683048173</v>
+        <v>7.553076030736</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-5.118207768212874</v>
+        <v>-4.355369272404585</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.192273164110216</v>
+        <v>6.566496316076445</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.4626672063736</v>
+        <v>12.4649704714965</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.009449928549528</v>
+        <v>-1.681642322130855</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.8861854709951</v>
+        <v>6.655882950113483</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.008035996495796</v>
+        <v>7.944185240997556</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-4.606130763707733</v>
+        <v>-4.65228379684669</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.566696209299305</v>
+        <v>5.028390225206238</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2466280525203491</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.006244550621074966</v>
+        <v>0.006244550621074843</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.100959316948255</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1637275854169112</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02024409524039859</v>
+        <v>0.0202440952403988</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.06739848898957281</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1402536448393852</v>
+        <v>-0.1162454389455325</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3902669860845986</v>
+        <v>-0.3606788790625273</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1187262959055591</v>
+        <v>-0.1181685934142539</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0413786745618974</v>
+        <v>-0.03386431015414375</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2787182087296986</v>
+        <v>-0.2782491890564716</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09365866744248208</v>
+        <v>-0.07823156489933958</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.03772201412121985</v>
+        <v>-0.03893643649668336</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2940832014866283</v>
+        <v>-0.2804571934529738</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.05814601790588297</v>
+        <v>-0.06409158481550323</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1807915511619963</v>
+        <v>0.1740820043965633</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1235049958849282</v>
+        <v>-0.1074793333867943</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1530811910535246</v>
+        <v>0.1590157245447321</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2538169147132767</v>
+        <v>0.257814995008207</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.03590979289853267</v>
+        <v>-0.02807980277250242</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1420255329402123</v>
+        <v>0.138923082449976</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1755054411475212</v>
+        <v>0.1740103887484613</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.09826747570903607</v>
+        <v>-0.1053580559456787</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1224760610353129</v>
+        <v>0.1098686212891597</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>3.068092513503834</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.017919607719771</v>
+        <v>-2.017919607719765</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.610764457047503</v>
+        <v>3.689126654363749</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.685405104233021</v>
+        <v>2.677166951467497</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.778110867868298</v>
+        <v>-3.645599937667256</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.27008901884886</v>
+        <v>5.532205362920992</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.623754168605149</v>
+        <v>-1.483208520237746</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.629756903869958</v>
+        <v>-5.414718723961977</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.339860800226797</v>
+        <v>5.334281790594061</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.421073598129981</v>
+        <v>1.391194306966757</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.737864560751553</v>
+        <v>-3.812214976170057</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.706289835748576</v>
+        <v>8.6151556040766</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.755074298055995</v>
+        <v>7.428564860538045</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.567271914139816</v>
+        <v>1.508996272688949</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.16654038840288</v>
+        <v>10.10616097305617</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.368736260654222</v>
+        <v>3.246014254285638</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.7416610065091813</v>
+        <v>-0.5864418017599865</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.849042118689175</v>
+        <v>8.91315914041483</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.77748932670923</v>
+        <v>4.946896325557037</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.1585133611894476</v>
+        <v>-0.3590420989394905</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.06323689964045787</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.04159163361412367</v>
+        <v>-0.04159163361412355</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.08160778033798124</v>
+        <v>0.08377994997103534</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.06104803699021259</v>
+        <v>0.06091249065566891</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.08618775547439647</v>
+        <v>-0.08328001901225904</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.09489845732406964</v>
+        <v>0.09921515538195175</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.0299139376917326</v>
+        <v>-0.02710686378025425</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1004177259558361</v>
+        <v>-0.09598696958021306</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1075137759063445</v>
+        <v>0.1077044260543204</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02867299200727543</v>
+        <v>0.02796427386686123</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.07505028853866433</v>
+        <v>-0.07760593504789642</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.210495689703434</v>
+        <v>0.2064708619302024</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.187081648999618</v>
+        <v>0.1793193708726601</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.03670435998020253</v>
+        <v>0.03584206282947131</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1932756841712245</v>
+        <v>0.1912679652741343</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06370182186837736</v>
+        <v>0.06190814382901372</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.01418867709319414</v>
+        <v>-0.01102383270696042</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1861415473815818</v>
+        <v>0.1872555227994294</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1003660919718158</v>
+        <v>0.1035292401533558</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.003338575684427999</v>
+        <v>-0.00735472213823499</v>
       </c>
     </row>
     <row r="34">
